--- a/router/exportFiles/user_info.xlsx
+++ b/router/exportFiles/user_info.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -406,217 +406,9 @@
         <v>在读状态</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2">
-        <v>12345678</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Soochow University</v>
-      </c>
-      <c r="C2" t="str">
-        <v>ZhaoCheng</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Math department</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Information and compute scienc</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Grade Three</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>1607400001</v>
-      </c>
-      <c r="B3" t="str">
-        <v>苏州大学</v>
-      </c>
-      <c r="C3" t="str">
-        <v>锁依琴</v>
-      </c>
-      <c r="D3" t="str">
-        <v>数学科学学院</v>
-      </c>
-      <c r="E3" t="str">
-        <v>数学与应用数学（基地）</v>
-      </c>
-      <c r="F3" t="str">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>1607400002</v>
-      </c>
-      <c r="B4" t="str">
-        <v>苏州大学</v>
-      </c>
-      <c r="C4" t="str">
-        <v>颜辰</v>
-      </c>
-      <c r="D4" t="str">
-        <v>数学科学学院</v>
-      </c>
-      <c r="E4" t="str">
-        <v>数学与应用数学（基地）</v>
-      </c>
-      <c r="F4" t="str">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>1607400003</v>
-      </c>
-      <c r="B5" t="str">
-        <v>苏州大学</v>
-      </c>
-      <c r="C5" t="str">
-        <v>碧鲁隽</v>
-      </c>
-      <c r="D5" t="str">
-        <v>数学科学学院</v>
-      </c>
-      <c r="E5" t="str">
-        <v>数学与应用数学（基地）</v>
-      </c>
-      <c r="F5" t="str">
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>1607400004</v>
-      </c>
-      <c r="B6" t="str">
-        <v>苏州大学</v>
-      </c>
-      <c r="C6" t="str">
-        <v>始璠瑜</v>
-      </c>
-      <c r="D6" t="str">
-        <v>数学科学学院</v>
-      </c>
-      <c r="E6" t="str">
-        <v>数学与应用数学（基地）</v>
-      </c>
-      <c r="F6" t="str">
-        <v>16</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>1607400005</v>
-      </c>
-      <c r="B7" t="str">
-        <v>苏州大学</v>
-      </c>
-      <c r="C7" t="str">
-        <v>东郭真</v>
-      </c>
-      <c r="D7" t="str">
-        <v>计算机学院</v>
-      </c>
-      <c r="E7" t="str">
-        <v>数学与应用数学（基地）</v>
-      </c>
-      <c r="F7" t="str">
-        <v>16</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>1607400010</v>
-      </c>
-      <c r="B8" t="str">
-        <v>苏州大学</v>
-      </c>
-      <c r="C8" t="str">
-        <v>闻海阳</v>
-      </c>
-      <c r="D8" t="str">
-        <v>数学科学学院</v>
-      </c>
-      <c r="E8" t="str">
-        <v>数学与应用数学（基地）</v>
-      </c>
-      <c r="F8" t="str">
-        <v>16</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>1627405161</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Soochow University</v>
-      </c>
-      <c r="C9" t="str">
-        <v>MaChengpeng</v>
-      </c>
-      <c r="D9" t="str">
-        <v>Computer science dep</v>
-      </c>
-      <c r="E9" t="str">
-        <v>Computerscience</v>
-      </c>
-      <c r="F9" t="str">
-        <v>Grade Three</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/router/exportFiles/user_info.xlsx
+++ b/router/exportFiles/user_info.xlsx
@@ -385,22 +385,22 @@
         <v>学号</v>
       </c>
       <c r="B1" t="str">
-        <v>大学</v>
+        <v>学校</v>
       </c>
       <c r="C1" t="str">
-        <v>学生姓名</v>
+        <v>姓名</v>
       </c>
       <c r="D1" t="str">
-        <v>学院</v>
+        <v>院系</v>
       </c>
       <c r="E1" t="str">
         <v>专业</v>
       </c>
       <c r="F1" t="str">
+        <v>性别</v>
+      </c>
+      <c r="G1" t="str">
         <v>年级</v>
-      </c>
-      <c r="G1" t="str">
-        <v>性别</v>
       </c>
       <c r="H1" t="str">
         <v>在读状态</v>
